--- a/data/survey_metadata.xlsx
+++ b/data/survey_metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thayc\Documents\Proj3-grp4-Mentalhealth_Tech\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{828A1952-85F8-4612-8F93-C4214E4B05AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C573F298-3B54-44E7-BE8D-3941CA32F018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="59280" yWindow="1605" windowWidth="21600" windowHeight="11175" xr2:uid="{5D68AA1B-287A-43A8-805C-D6923FFA9492}"/>
+    <workbookView xWindow="60240" yWindow="1485" windowWidth="21600" windowHeight="11175" xr2:uid="{5D68AA1B-287A-43A8-805C-D6923FFA9492}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -598,7 +598,7 @@
   <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B28"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -736,7 +736,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>28</v>
       </c>
